--- a/data/input/employee_absence_data_29.xlsx
+++ b/data/input/employee_absence_data_29.xlsx
@@ -464,132 +464,132 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>30232</v>
+        <v>36426</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sophia Castro</t>
+          <t>Théo Dias</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45080</v>
+        <v>45102</v>
       </c>
       <c r="G2" t="n">
-        <v>4017.3</v>
+        <v>6641.16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>55893</v>
+        <v>25803</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Isaque Vasconcelos</t>
+          <t>Giovanna das Neves</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45102</v>
+        <v>45101</v>
       </c>
       <c r="G3" t="n">
-        <v>7348.82</v>
+        <v>6059.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>80426</v>
+        <v>40077</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aylla Monteiro</t>
+          <t>Miguel Barbosa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45102</v>
+        <v>45092</v>
       </c>
       <c r="G4" t="n">
-        <v>6161.32</v>
+        <v>9642</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>58284</v>
+        <v>2086</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alexandre das Neves</t>
+          <t>Igor Lima</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>5</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45099</v>
+        <v>45084</v>
       </c>
       <c r="G5" t="n">
-        <v>4033.81</v>
+        <v>2358.94</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>77047</v>
+        <v>82207</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Maria Sophia Garcia</t>
+          <t>Breno Nascimento</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -598,56 +598,56 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45079</v>
+        <v>45084</v>
       </c>
       <c r="G6" t="n">
-        <v>8040.09</v>
+        <v>4430.35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>38456</v>
+        <v>44426</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Isabel Vieira</t>
+          <t>Bella da Conceição</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45094</v>
+        <v>45080</v>
       </c>
       <c r="G7" t="n">
-        <v>7124.17</v>
+        <v>8231.24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>46941</v>
+        <v>39202</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Levi Barbosa</t>
+          <t>Sr. Miguel Moreira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -656,100 +656,100 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45106</v>
+        <v>45079</v>
       </c>
       <c r="G8" t="n">
-        <v>12470.84</v>
+        <v>2784.38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7040</v>
+        <v>13316</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rael Pimenta</t>
+          <t>Srta. Ana Lívia Souza</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45104</v>
+        <v>45084</v>
       </c>
       <c r="G9" t="n">
-        <v>7471.41</v>
+        <v>7248.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>79783</v>
+        <v>43368</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Juliana Teixeira</t>
+          <t>Marina Santos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45088</v>
+        <v>45080</v>
       </c>
       <c r="G10" t="n">
-        <v>9204.02</v>
+        <v>6216.16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>29128</v>
+        <v>28576</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dra. Lara Aragão</t>
+          <t>Sr. Ryan Araújo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45105</v>
+        <v>45082</v>
       </c>
       <c r="G11" t="n">
-        <v>11559.06</v>
+        <v>8003.91</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_29.xlsx
+++ b/data/input/employee_absence_data_29.xlsx
@@ -464,16 +464,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>36426</v>
+        <v>31488</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Théo Dias</t>
+          <t>Raquel Leão</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -482,85 +482,85 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45102</v>
+        <v>45101</v>
       </c>
       <c r="G2" t="n">
-        <v>6641.16</v>
+        <v>4369.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>25803</v>
+        <v>88896</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Giovanna das Neves</t>
+          <t>Lorena Moreira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45101</v>
+        <v>45106</v>
       </c>
       <c r="G3" t="n">
-        <v>6059.1</v>
+        <v>2090.28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>40077</v>
+        <v>92504</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Miguel Barbosa</t>
+          <t>Lívia Vieira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45092</v>
+        <v>45098</v>
       </c>
       <c r="G4" t="n">
-        <v>9642</v>
+        <v>4482.88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2086</v>
+        <v>67746</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Igor Lima</t>
+          <t>Maria Júlia Ribeiro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -572,140 +572,140 @@
         <v>5</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45084</v>
+        <v>45102</v>
       </c>
       <c r="G5" t="n">
-        <v>2358.94</v>
+        <v>9003.51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>82207</v>
+        <v>68212</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Breno Nascimento</t>
+          <t>Maysa Carvalho</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45084</v>
+        <v>45101</v>
       </c>
       <c r="G6" t="n">
-        <v>4430.35</v>
+        <v>5207.13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>44426</v>
+        <v>11744</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bella da Conceição</t>
+          <t>Dr. João Vitor Jesus</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45080</v>
+        <v>45102</v>
       </c>
       <c r="G7" t="n">
-        <v>8231.24</v>
+        <v>9752.83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>39202</v>
+        <v>54530</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sr. Miguel Moreira</t>
+          <t>Jade Dias</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45079</v>
+        <v>45088</v>
       </c>
       <c r="G8" t="n">
-        <v>2784.38</v>
+        <v>3585.17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>13316</v>
+        <v>39042</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Srta. Ana Lívia Souza</t>
+          <t>Julia Dias</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45084</v>
+        <v>45082</v>
       </c>
       <c r="G9" t="n">
-        <v>7248.5</v>
+        <v>7237.12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>43368</v>
+        <v>17008</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Marina Santos</t>
+          <t>Marcelo Correia</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -714,27 +714,27 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45080</v>
+        <v>45079</v>
       </c>
       <c r="G10" t="n">
-        <v>6216.16</v>
+        <v>5292.73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>28576</v>
+        <v>45226</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sr. Ryan Araújo</t>
+          <t>Rhavi Vasconcelos</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -743,13 +743,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45082</v>
+        <v>45090</v>
       </c>
       <c r="G11" t="n">
-        <v>8003.91</v>
+        <v>6073.2</v>
       </c>
     </row>
   </sheetData>
